--- a/data/trans_orig/P05A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F23B9CE9-FD01-4671-97AF-9E4950902BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3328B189-228D-44D7-841F-780EE985335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D57D3BC-AC28-4872-888A-D1B80146FACF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D5EF029-477D-4AAE-BB37-4AD63A054157}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -88,1860 +88,1869 @@
     <t>67,14%</t>
   </si>
   <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>29,91%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>29,09%</t>
   </si>
   <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
     <t>7,32%</t>
   </si>
   <si>
@@ -1969,9 +1978,6 @@
     <t>81,81%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
     <t>82,45%</t>
   </si>
   <si>
@@ -2011,9 +2017,6 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
     <t>3,71%</t>
   </si>
   <si>
@@ -2021,9 +2024,6 @@
   </si>
   <si>
     <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
   </si>
   <si>
     <t>5,08%</t>
@@ -2447,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8585F1A2-35FB-43FC-91F1-E10CDE30D2D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0C7C67-764C-4E78-90D6-653BC927F191}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3094,10 +3094,10 @@
         <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3153,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3165,28 +3165,28 @@
         <v>409002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>364</v>
       </c>
       <c r="I16" s="7">
-        <v>391641</v>
+        <v>391642</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>745</v>
@@ -3195,13 +3195,13 @@
         <v>800644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3216,13 @@
         <v>197040</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -3231,13 +3231,13 @@
         <v>224958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -3246,13 +3246,13 @@
         <v>421998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3267,13 @@
         <v>52242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -3282,13 +3282,13 @@
         <v>46160</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
@@ -3297,13 +3297,13 @@
         <v>98402</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,7 +3330,7 @@
         <v>615</v>
       </c>
       <c r="I19" s="7">
-        <v>662759</v>
+        <v>662760</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>42</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3371,13 +3371,13 @@
         <v>129110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -3386,13 +3386,13 @@
         <v>122291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -3401,13 +3401,13 @@
         <v>251402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3422,13 @@
         <v>61351</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>80</v>
@@ -3437,13 +3437,13 @@
         <v>83481</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -3452,13 +3452,13 @@
         <v>144833</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3473,13 @@
         <v>22156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3488,13 +3488,13 @@
         <v>13819</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -3503,13 +3503,13 @@
         <v>35975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3565,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3577,13 +3577,13 @@
         <v>220623</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>205</v>
@@ -3592,13 +3592,13 @@
         <v>213086</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>413</v>
@@ -3607,13 +3607,13 @@
         <v>433710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3628,13 @@
         <v>47420</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -3643,13 +3643,13 @@
         <v>61901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3658,13 +3658,13 @@
         <v>109320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3679,13 @@
         <v>5938</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3694,13 +3694,13 @@
         <v>3030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3709,13 +3709,13 @@
         <v>8968</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3771,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3783,13 +3783,13 @@
         <v>497200</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>495</v>
@@ -3798,13 +3798,13 @@
         <v>539639</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>958</v>
@@ -3813,13 +3813,13 @@
         <v>1036840</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3834,13 @@
         <v>146319</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>125</v>
@@ -3849,13 +3849,13 @@
         <v>136852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>264</v>
@@ -3864,13 +3864,13 @@
         <v>283171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3885,13 @@
         <v>13173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3900,13 +3900,13 @@
         <v>15206</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3915,13 +3915,13 @@
         <v>28379</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,7 +3977,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3989,13 +3989,13 @@
         <v>557301</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>550</v>
@@ -4004,13 +4004,13 @@
         <v>598566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>1063</v>
@@ -4019,13 +4019,13 @@
         <v>1155868</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4040,13 @@
         <v>195871</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H33" s="7">
         <v>192</v>
@@ -4055,13 +4055,13 @@
         <v>208779</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M33" s="7">
         <v>372</v>
@@ -4070,13 +4070,13 @@
         <v>404650</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4091,13 @@
         <v>23866</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -4106,13 +4106,13 @@
         <v>16508</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -4121,13 +4121,13 @@
         <v>40374</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4195,13 @@
         <v>2426978</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H36" s="7">
         <v>2326</v>
@@ -4210,13 +4210,13 @@
         <v>2509543</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>4595</v>
@@ -4225,13 +4225,13 @@
         <v>4936521</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4246,13 @@
         <v>845083</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>843</v>
@@ -4261,13 +4261,13 @@
         <v>909841</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>1640</v>
@@ -4276,13 +4276,13 @@
         <v>1754925</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4297,13 @@
         <v>134146</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>111</v>
@@ -4312,13 +4312,13 @@
         <v>118374</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M38" s="7">
         <v>237</v>
@@ -4327,13 +4327,13 @@
         <v>252520</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,7 +4389,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +4413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CFD13-6D93-4D3A-A1BE-756A85C3E0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AEC294-376E-4DA4-9385-2DE60CEC6053}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4430,7 +4430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4537,13 +4537,13 @@
         <v>164857</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -4552,13 +4552,13 @@
         <v>157578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>299</v>
@@ -4567,13 +4567,13 @@
         <v>322435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4588,13 @@
         <v>103777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -4603,13 +4603,13 @@
         <v>104220</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -4618,13 +4618,13 @@
         <v>207996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4639,13 @@
         <v>18889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -4654,13 +4654,13 @@
         <v>20900</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -4669,13 +4669,13 @@
         <v>39789</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4743,13 @@
         <v>346656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>352</v>
@@ -4758,13 +4758,13 @@
         <v>377097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>676</v>
@@ -4773,13 +4773,13 @@
         <v>723753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4794,13 @@
         <v>133381</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H9" s="7">
         <v>110</v>
@@ -4809,13 +4809,13 @@
         <v>122351</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>240</v>
@@ -4824,13 +4824,13 @@
         <v>255733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4845,13 @@
         <v>21521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4863,10 +4863,10 @@
         <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4875,13 +4875,13 @@
         <v>42129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4949,13 @@
         <v>254203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>267</v>
@@ -4964,13 +4964,13 @@
         <v>270796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>533</v>
@@ -4979,13 +4979,13 @@
         <v>525000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5000,13 @@
         <v>58629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5015,10 +5015,10 @@
         <v>60991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>299</v>
@@ -5051,10 +5051,10 @@
         <v>5733</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>304</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5224,10 +5224,10 @@
         <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>141</v>
@@ -5236,13 +5236,13 @@
         <v>145404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5257,13 @@
         <v>23893</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -5272,13 +5272,13 @@
         <v>24320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -5287,13 +5287,13 @@
         <v>48213</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5349,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5361,13 +5361,13 @@
         <v>183913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -5376,13 +5376,13 @@
         <v>187545</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -5391,13 +5391,13 @@
         <v>371458</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5412,13 @@
         <v>21661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -5427,13 +5427,13 @@
         <v>20137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -5442,13 +5442,13 @@
         <v>41798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5463,13 @@
         <v>5647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5478,13 +5478,13 @@
         <v>10905</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5493,13 +5493,13 @@
         <v>16552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,7 +5555,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5567,13 +5567,13 @@
         <v>236586</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>242</v>
@@ -5582,13 +5582,13 @@
         <v>250115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
         <v>475</v>
@@ -5597,13 +5597,13 @@
         <v>486701</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5618,13 @@
         <v>22824</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5633,13 +5633,13 @@
         <v>21965</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -5648,13 +5648,13 @@
         <v>44789</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5669,13 @@
         <v>3713</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5687,10 +5687,10 @@
         <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5699,13 +5699,13 @@
         <v>3713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,7 +5761,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5773,13 +5773,13 @@
         <v>427417</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H28" s="7">
         <v>410</v>
@@ -5788,13 +5788,13 @@
         <v>436477</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M28" s="7">
         <v>784</v>
@@ -5803,13 +5803,13 @@
         <v>863893</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5824,13 @@
         <v>200571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
         <v>209</v>
@@ -5839,13 +5839,13 @@
         <v>224716</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M29" s="7">
         <v>388</v>
@@ -5854,13 +5854,13 @@
         <v>425287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5875,13 @@
         <v>23680</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5890,10 +5890,10 @@
         <v>23513</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>409</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>410</v>
@@ -5905,13 +5905,13 @@
         <v>47193</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>411</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,7 +5967,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5979,13 +5979,13 @@
         <v>693675</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H32" s="7">
         <v>652</v>
@@ -5994,13 +5994,13 @@
         <v>712031</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M32" s="7">
         <v>1317</v>
@@ -6009,13 +6009,13 @@
         <v>1405707</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6030,13 @@
         <v>68306</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
@@ -6045,13 +6045,13 @@
         <v>92426</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>255</v>
+        <v>425</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M33" s="7">
         <v>151</v>
@@ -6060,13 +6060,13 @@
         <v>160732</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6081,13 @@
         <v>14495</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>430</v>
+        <v>149</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -6096,13 +6096,13 @@
         <v>15504</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>433</v>
+        <v>149</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>197</v>
+        <v>434</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -6111,13 +6111,13 @@
         <v>29999</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>177</v>
+        <v>436</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6185,13 @@
         <v>2576134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H36" s="7">
         <v>2529</v>
@@ -6200,13 +6200,13 @@
         <v>2676505</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M36" s="7">
         <v>4977</v>
@@ -6215,13 +6215,13 @@
         <v>5252639</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6236,13 @@
         <v>682913</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>446</v>
+        <v>323</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H37" s="7">
         <v>671</v>
@@ -6251,13 +6251,13 @@
         <v>718447</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M37" s="7">
         <v>1325</v>
@@ -6266,13 +6266,13 @@
         <v>1401360</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,10 +6287,10 @@
         <v>117572</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>455</v>
+        <v>284</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>456</v>
@@ -6302,13 +6302,13 @@
         <v>119370</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>201</v>
+        <v>457</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M38" s="7">
         <v>222</v>
@@ -6317,13 +6317,13 @@
         <v>236941</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>197</v>
+        <v>461</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6379,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6403,7 +6403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351DA45E-92FB-4175-844E-D6AB24E1B7B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F2852A-B54F-43D7-A01A-18699437E313}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6420,7 +6420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6527,13 +6527,13 @@
         <v>249671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>511</v>
@@ -6542,13 +6542,13 @@
         <v>257054</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>820</v>
@@ -6557,13 +6557,13 @@
         <v>506725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6578,13 @@
         <v>9563</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>473</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -6593,13 +6593,13 @@
         <v>14190</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -6608,13 +6608,13 @@
         <v>23752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>474</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,10 +6632,10 @@
         <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6644,13 +6644,13 @@
         <v>159</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6659,13 +6659,13 @@
         <v>159</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6733,13 @@
         <v>396114</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -6748,13 +6748,13 @@
         <v>424461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M8" s="7">
         <v>849</v>
@@ -6763,13 +6763,13 @@
         <v>820575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>488</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6784,13 @@
         <v>94551</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H9" s="7">
         <v>137</v>
@@ -6799,13 +6799,13 @@
         <v>113516</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M9" s="7">
         <v>210</v>
@@ -6814,13 +6814,13 @@
         <v>208067</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6835,13 @@
         <v>28632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -6850,13 +6850,13 @@
         <v>14513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -6865,13 +6865,13 @@
         <v>43145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6939,13 @@
         <v>273762</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>509</v>
       </c>
       <c r="H12" s="7">
         <v>468</v>
@@ -6954,13 +6954,13 @@
         <v>321049</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M12" s="7">
         <v>774</v>
@@ -6969,13 +6969,13 @@
         <v>594811</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6990,13 @@
         <v>27881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7005,13 +7005,13 @@
         <v>34119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>519</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -7020,13 +7020,13 @@
         <v>62000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7041,13 @@
         <v>19547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -7056,13 +7056,13 @@
         <v>18116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7071,13 +7071,13 @@
         <v>37664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7145,13 +7145,13 @@
         <v>268465</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="H16" s="7">
         <v>499</v>
@@ -7160,13 +7160,13 @@
         <v>364013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M16" s="7">
         <v>737</v>
@@ -7175,13 +7175,13 @@
         <v>632477</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7196,13 @@
         <v>44516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>540</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -7211,13 +7211,13 @@
         <v>50134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -7226,13 +7226,13 @@
         <v>94650</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7247,13 @@
         <v>8652</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>545</v>
+        <v>380</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -7262,13 +7262,13 @@
         <v>13273</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>546</v>
+        <v>434</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -7277,13 +7277,13 @@
         <v>21925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,7 +7339,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7351,13 +7351,13 @@
         <v>180024</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>462</v>
@@ -7366,13 +7366,13 @@
         <v>243721</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>721</v>
@@ -7381,13 +7381,13 @@
         <v>423743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7402,13 @@
         <v>16565</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -7417,13 +7417,13 @@
         <v>15792</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>226</v>
+        <v>566</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
@@ -7432,13 +7432,13 @@
         <v>32357</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7453,13 @@
         <v>160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7471,10 +7471,10 @@
         <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7483,13 +7483,13 @@
         <v>160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,7 +7545,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7557,13 +7557,13 @@
         <v>243318</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H24" s="7">
         <v>411</v>
@@ -7572,13 +7572,13 @@
         <v>244972</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M24" s="7">
         <v>737</v>
@@ -7587,13 +7587,13 @@
         <v>488291</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7608,13 @@
         <v>21435</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -7623,13 +7623,13 @@
         <v>20640</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -7638,13 +7638,13 @@
         <v>42074</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7659,13 @@
         <v>12047</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -7674,13 +7674,13 @@
         <v>10010</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -7689,13 +7689,13 @@
         <v>22057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>591</v>
+        <v>229</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7751,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7763,13 +7763,13 @@
         <v>481318</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H28" s="7">
         <v>718</v>
@@ -7778,13 +7778,13 @@
         <v>623555</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M28" s="7">
         <v>1186</v>
@@ -7793,13 +7793,13 @@
         <v>1104873</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7814,13 @@
         <v>103347</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H29" s="7">
         <v>182</v>
@@ -7829,13 +7829,13 @@
         <v>134976</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M29" s="7">
         <v>273</v>
@@ -7844,13 +7844,13 @@
         <v>238322</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7865,13 @@
         <v>35609</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -7880,13 +7880,13 @@
         <v>40996</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>93</v>
+        <v>615</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>149</v>
+        <v>616</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="M30" s="7">
         <v>82</v>
@@ -7895,13 +7895,13 @@
         <v>76605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +7957,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7969,13 +7969,13 @@
         <v>716718</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H32" s="7">
         <v>822</v>
@@ -7984,13 +7984,13 @@
         <v>674709</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="M32" s="7">
         <v>1447</v>
@@ -7999,13 +7999,13 @@
         <v>1391427</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +8020,13 @@
         <v>95761</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H33" s="7">
         <v>154</v>
@@ -8035,13 +8035,13 @@
         <v>124823</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>629</v>
+        <v>375</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="M33" s="7">
         <v>242</v>
@@ -8050,13 +8050,13 @@
         <v>220584</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>631</v>
+        <v>424</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8071,13 @@
         <v>46949</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>251</v>
+        <v>636</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H34" s="7">
         <v>82</v>
@@ -8086,13 +8086,13 @@
         <v>66137</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="M34" s="7">
         <v>131</v>
@@ -8101,13 +8101,13 @@
         <v>113085</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8175,13 @@
         <v>2809390</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>643</v>
+        <v>130</v>
       </c>
       <c r="H36" s="7">
         <v>4447</v>
@@ -8190,13 +8190,13 @@
         <v>3153533</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M36" s="7">
         <v>7271</v>
@@ -8205,13 +8205,13 @@
         <v>5962922</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8226,13 @@
         <v>413618</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H37" s="7">
         <v>691</v>
@@ -8241,13 +8241,13 @@
         <v>508189</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="M37" s="7">
         <v>1094</v>
@@ -8256,13 +8256,13 @@
         <v>921807</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8277,13 @@
         <v>151596</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>657</v>
+        <v>412</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H38" s="7">
         <v>211</v>
@@ -8292,10 +8292,10 @@
         <v>163204</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>661</v>
+        <v>177</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>662</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3328B189-228D-44D7-841F-780EE985335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E5C070-D192-4391-8328-9FE14DD7431A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D5EF029-477D-4AAE-BB37-4AD63A054157}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34043F92-BE6E-4216-B3B9-3969C93048F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="675">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -88,1954 +88,1981 @@
     <t>67,14%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>62,24%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
   </si>
 </sst>
 </file>
@@ -2447,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0C7C67-764C-4E78-90D6-653BC927F191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722F9AD0-1321-4842-8EB0-FE8709D0C117}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3094,10 +3121,10 @@
         <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3180,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3165,28 +3192,28 @@
         <v>409002</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>364</v>
       </c>
       <c r="I16" s="7">
-        <v>391642</v>
+        <v>391641</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>745</v>
@@ -3195,13 +3222,13 @@
         <v>800644</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3243,13 @@
         <v>197040</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -3231,13 +3258,13 @@
         <v>224958</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -3246,13 +3273,13 @@
         <v>421998</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3294,13 @@
         <v>52242</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -3282,13 +3309,13 @@
         <v>46160</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
@@ -3297,13 +3324,13 @@
         <v>98402</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,7 +3357,7 @@
         <v>615</v>
       </c>
       <c r="I19" s="7">
-        <v>662760</v>
+        <v>662759</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>42</v>
@@ -3359,7 +3386,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3371,13 +3398,13 @@
         <v>129110</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -3386,13 +3413,13 @@
         <v>122291</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -3401,13 +3428,13 @@
         <v>251402</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3449,13 @@
         <v>61351</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>80</v>
@@ -3437,13 +3464,13 @@
         <v>83481</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -3452,13 +3479,13 @@
         <v>144833</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3500,13 @@
         <v>22156</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3488,13 +3515,13 @@
         <v>13819</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -3503,13 +3530,13 @@
         <v>35975</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3592,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3577,13 +3604,13 @@
         <v>220623</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>205</v>
@@ -3592,13 +3619,13 @@
         <v>213086</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>413</v>
@@ -3607,13 +3634,13 @@
         <v>433710</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3655,13 @@
         <v>47420</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -3643,13 +3670,13 @@
         <v>61901</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3658,13 +3685,13 @@
         <v>109320</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3706,13 @@
         <v>5938</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3694,13 +3721,13 @@
         <v>3030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3709,13 +3736,13 @@
         <v>8968</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3798,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3783,13 +3810,13 @@
         <v>497200</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>495</v>
@@ -3798,13 +3825,13 @@
         <v>539639</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="M28" s="7">
         <v>958</v>
@@ -3813,13 +3840,13 @@
         <v>1036840</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3861,13 @@
         <v>146319</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>125</v>
@@ -3849,13 +3876,13 @@
         <v>136852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>264</v>
@@ -3864,13 +3891,13 @@
         <v>283171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3912,13 @@
         <v>13173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3900,13 +3927,13 @@
         <v>15206</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3915,13 +3942,13 @@
         <v>28379</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,7 +4004,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3989,13 +4016,13 @@
         <v>557301</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>550</v>
@@ -4004,13 +4031,13 @@
         <v>598566</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>1063</v>
@@ -4019,13 +4046,13 @@
         <v>1155868</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4067,13 @@
         <v>195871</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H33" s="7">
         <v>192</v>
@@ -4055,13 +4082,13 @@
         <v>208779</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M33" s="7">
         <v>372</v>
@@ -4070,13 +4097,13 @@
         <v>404650</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4118,13 @@
         <v>23866</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -4106,13 +4133,13 @@
         <v>16508</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -4121,13 +4148,13 @@
         <v>40374</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4222,13 @@
         <v>2426978</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H36" s="7">
         <v>2326</v>
@@ -4210,13 +4237,13 @@
         <v>2509543</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>4595</v>
@@ -4225,7 +4252,7 @@
         <v>4936521</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>214</v>
@@ -4282,7 +4309,7 @@
         <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>224</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4324,13 @@
         <v>134146</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>111</v>
@@ -4312,10 +4339,10 @@
         <v>118374</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>229</v>
@@ -4413,7 +4440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AEC294-376E-4DA4-9385-2DE60CEC6053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B44D762-B3D8-4E26-B384-7C3E86C72716}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4749,7 +4776,7 @@
         <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>352</v>
@@ -4758,13 +4785,13 @@
         <v>377097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>676</v>
@@ -4773,13 +4800,13 @@
         <v>723753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4821,13 @@
         <v>133381</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>110</v>
@@ -4809,13 +4836,13 @@
         <v>122351</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>240</v>
@@ -4824,13 +4851,13 @@
         <v>255733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4872,13 @@
         <v>21521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4863,10 +4890,10 @@
         <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4875,13 +4902,13 @@
         <v>42129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4976,13 @@
         <v>254203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>267</v>
@@ -4964,13 +4991,13 @@
         <v>270796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>533</v>
@@ -4979,13 +5006,13 @@
         <v>525000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5027,13 @@
         <v>58629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5015,13 +5042,13 @@
         <v>60991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -5030,13 +5057,13 @@
         <v>119620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5078,13 @@
         <v>5733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5066,13 +5093,13 @@
         <v>3619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -5081,13 +5108,13 @@
         <v>9352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,7 +5170,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5155,13 +5182,13 @@
         <v>268827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>262</v>
@@ -5170,13 +5197,13 @@
         <v>284866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>517</v>
@@ -5185,13 +5212,13 @@
         <v>553693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5233,13 @@
         <v>73764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -5221,13 +5248,13 @@
         <v>71640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>141</v>
@@ -5236,13 +5263,13 @@
         <v>145404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5284,13 @@
         <v>23893</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -5272,13 +5299,13 @@
         <v>24320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -5287,13 +5314,13 @@
         <v>48213</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5376,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5361,13 +5388,13 @@
         <v>183913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -5376,13 +5403,13 @@
         <v>187545</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -5391,13 +5418,13 @@
         <v>371458</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5439,13 @@
         <v>21661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -5427,13 +5454,13 @@
         <v>20137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -5442,13 +5469,13 @@
         <v>41798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5490,13 @@
         <v>5647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5478,13 +5505,13 @@
         <v>10905</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5493,13 +5520,13 @@
         <v>16552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,7 +5582,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5567,13 +5594,13 @@
         <v>236586</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H24" s="7">
         <v>242</v>
@@ -5582,13 +5609,13 @@
         <v>250115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M24" s="7">
         <v>475</v>
@@ -5597,13 +5624,13 @@
         <v>486701</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,10 +5645,10 @@
         <v>22824</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>375</v>
@@ -5690,7 +5717,7 @@
         <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5699,13 +5726,13 @@
         <v>3713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,7 +5788,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5773,13 +5800,13 @@
         <v>427417</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
         <v>410</v>
@@ -5788,13 +5815,13 @@
         <v>436477</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
         <v>784</v>
@@ -5803,13 +5830,13 @@
         <v>863893</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5851,13 @@
         <v>200571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H29" s="7">
         <v>209</v>
@@ -5839,13 +5866,13 @@
         <v>224716</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M29" s="7">
         <v>388</v>
@@ -5854,10 +5881,10 @@
         <v>425287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>406</v>
@@ -5878,10 +5905,10 @@
         <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5890,13 +5917,13 @@
         <v>23513</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -5905,13 +5932,13 @@
         <v>47193</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>414</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,7 +5994,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5979,13 +6006,13 @@
         <v>693675</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H32" s="7">
         <v>652</v>
@@ -5994,13 +6021,13 @@
         <v>712031</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M32" s="7">
         <v>1317</v>
@@ -6009,13 +6036,13 @@
         <v>1405707</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6057,13 @@
         <v>68306</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
@@ -6045,13 +6072,13 @@
         <v>92426</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>426</v>
+        <v>97</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M33" s="7">
         <v>151</v>
@@ -6060,7 +6087,7 @@
         <v>160732</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>428</v>
+        <v>121</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>429</v>
@@ -6084,10 +6111,10 @@
         <v>431</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>149</v>
+        <v>432</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -6096,13 +6123,13 @@
         <v>15504</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>149</v>
+        <v>435</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>434</v>
+        <v>286</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -6111,7 +6138,7 @@
         <v>29999</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>435</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>436</v>
@@ -6239,10 +6266,10 @@
         <v>447</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>323</v>
+        <v>448</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H37" s="7">
         <v>671</v>
@@ -6251,13 +6278,13 @@
         <v>718447</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M37" s="7">
         <v>1325</v>
@@ -6266,13 +6293,13 @@
         <v>1401360</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6314,13 @@
         <v>117572</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>284</v>
+        <v>457</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>456</v>
+        <v>285</v>
       </c>
       <c r="H38" s="7">
         <v>110</v>
@@ -6302,13 +6329,13 @@
         <v>119370</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M38" s="7">
         <v>222</v>
@@ -6317,13 +6344,13 @@
         <v>236941</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>462</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,7 +6430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F2852A-B54F-43D7-A01A-18699437E313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D9BF7-2802-46DD-840E-DD0D1CAF6428}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6578,13 +6605,13 @@
         <v>9563</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -6593,13 +6620,13 @@
         <v>14190</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -6611,10 +6638,10 @@
         <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6662,7 @@
         <v>385</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6644,13 +6671,13 @@
         <v>159</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6659,13 +6686,13 @@
         <v>159</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6760,13 @@
         <v>396114</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -6748,13 +6775,13 @@
         <v>424461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>489</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M8" s="7">
         <v>849</v>
@@ -6763,13 +6790,13 @@
         <v>820575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>492</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6811,13 @@
         <v>94551</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H9" s="7">
         <v>137</v>
@@ -6799,13 +6826,13 @@
         <v>113516</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M9" s="7">
         <v>210</v>
@@ -6814,13 +6841,13 @@
         <v>208067</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>144</v>
+        <v>501</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6862,13 @@
         <v>28632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -6850,13 +6877,13 @@
         <v>14513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>502</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -6865,13 +6892,13 @@
         <v>43145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6966,13 @@
         <v>273762</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7">
         <v>468</v>
@@ -6954,13 +6981,13 @@
         <v>321049</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M12" s="7">
         <v>774</v>
@@ -6969,13 +6996,13 @@
         <v>594811</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +7017,13 @@
         <v>27881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>518</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7005,13 +7032,13 @@
         <v>34119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -7020,13 +7047,13 @@
         <v>62000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7068,13 @@
         <v>19547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>525</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -7056,13 +7083,13 @@
         <v>18116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>531</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7071,13 +7098,13 @@
         <v>37664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>534</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,7 +7160,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7145,13 +7172,13 @@
         <v>268465</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H16" s="7">
         <v>499</v>
@@ -7160,13 +7187,13 @@
         <v>364013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M16" s="7">
         <v>737</v>
@@ -7175,13 +7202,13 @@
         <v>632477</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7223,13 @@
         <v>44516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>541</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -7211,13 +7238,13 @@
         <v>50134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -7226,13 +7253,13 @@
         <v>94650</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7274,13 @@
         <v>8652</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>380</v>
+        <v>554</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -7262,13 +7289,13 @@
         <v>13273</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>434</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>550</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -7277,13 +7304,13 @@
         <v>21925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,7 +7366,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7351,13 +7378,13 @@
         <v>180024</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H20" s="7">
         <v>462</v>
@@ -7366,13 +7393,13 @@
         <v>243721</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="M20" s="7">
         <v>721</v>
@@ -7381,13 +7408,13 @@
         <v>423743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7429,13 @@
         <v>16565</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -7417,13 +7444,13 @@
         <v>15792</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>525</v>
+        <v>96</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
@@ -7432,13 +7459,13 @@
         <v>32357</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7480,13 @@
         <v>160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7474,7 +7501,7 @@
         <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7483,13 +7510,13 @@
         <v>160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>574</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,7 +7572,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7557,13 +7584,13 @@
         <v>243318</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>577</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>411</v>
@@ -7572,13 +7599,13 @@
         <v>244972</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M24" s="7">
         <v>737</v>
@@ -7587,13 +7614,13 @@
         <v>488291</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7635,13 @@
         <v>21435</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -7623,13 +7650,13 @@
         <v>20640</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -7638,13 +7665,13 @@
         <v>42074</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7686,13 @@
         <v>12047</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -7677,10 +7704,10 @@
         <v>407</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>203</v>
+        <v>599</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -7689,13 +7716,13 @@
         <v>22057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>601</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>594</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7778,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7763,13 +7790,13 @@
         <v>481318</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="H28" s="7">
         <v>718</v>
@@ -7778,13 +7805,13 @@
         <v>623555</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="M28" s="7">
         <v>1186</v>
@@ -7793,13 +7820,13 @@
         <v>1104873</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7841,13 @@
         <v>103347</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>612</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>605</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="H29" s="7">
         <v>182</v>
@@ -7829,13 +7856,13 @@
         <v>134976</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="M29" s="7">
         <v>273</v>
@@ -7844,13 +7871,13 @@
         <v>238322</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7892,13 @@
         <v>35609</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -7880,13 +7907,13 @@
         <v>40996</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="M30" s="7">
         <v>82</v>
@@ -7895,13 +7922,13 @@
         <v>76605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>225</v>
+        <v>507</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +7984,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7969,13 +7996,13 @@
         <v>716718</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="H32" s="7">
         <v>822</v>
@@ -7984,13 +8011,13 @@
         <v>674709</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="M32" s="7">
         <v>1447</v>
@@ -7999,13 +8026,13 @@
         <v>1391427</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +8047,13 @@
         <v>95761</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>629</v>
+        <v>381</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H33" s="7">
         <v>154</v>
@@ -8035,13 +8062,13 @@
         <v>124823</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>632</v>
+        <v>495</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>375</v>
+        <v>637</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="M33" s="7">
         <v>242</v>
@@ -8050,13 +8077,13 @@
         <v>220584</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>424</v>
+        <v>640</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8098,13 @@
         <v>46949</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="H34" s="7">
         <v>82</v>
@@ -8086,13 +8113,13 @@
         <v>66137</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="M34" s="7">
         <v>131</v>
@@ -8101,13 +8128,13 @@
         <v>113085</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8202,13 @@
         <v>2809390</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>130</v>
+        <v>653</v>
       </c>
       <c r="H36" s="7">
         <v>4447</v>
@@ -8190,28 +8217,28 @@
         <v>3153533</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="M36" s="7">
         <v>7271</v>
       </c>
       <c r="N36" s="7">
-        <v>5962922</v>
+        <v>5962923</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8253,13 @@
         <v>413618</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>652</v>
+        <v>426</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="H37" s="7">
         <v>691</v>
@@ -8241,13 +8268,13 @@
         <v>508189</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="M37" s="7">
         <v>1094</v>
@@ -8256,13 +8283,13 @@
         <v>921807</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8304,13 @@
         <v>151596</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>412</v>
+        <v>668</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="H38" s="7">
         <v>211</v>
@@ -8292,13 +8319,13 @@
         <v>163204</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>177</v>
+        <v>671</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="M38" s="7">
         <v>347</v>
@@ -8307,13 +8334,13 @@
         <v>314800</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>665</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,7 +8382,7 @@
         <v>8712</v>
       </c>
       <c r="N39" s="7">
-        <v>7199529</v>
+        <v>7199530</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>42</v>

--- a/data/trans_orig/P05A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E5C070-D192-4391-8328-9FE14DD7431A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E08FADC-7615-4C6F-894A-2386BD163B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34043F92-BE6E-4216-B3B9-3969C93048F8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5F17FBC4-4A42-4E92-A832-A1181398FE34}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="697">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -73,15 +73,96 @@
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -118,9 +199,6 @@
     <t>25,84%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
     <t>29,09%</t>
   </si>
   <si>
@@ -166,9 +244,6 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -253,1077 +328,1080 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
     <t>13,76%</t>
   </si>
   <si>
@@ -1432,637 +1510,625 @@
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722F9AD0-1321-4842-8EB0-FE8709D0C117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613E5E9A-933F-4D04-BD0E-B69CDB9DE4A3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2592,133 +2658,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="D4" s="7">
+        <v>160351</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="I4" s="7">
+        <v>137475</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="N4" s="7">
+        <v>297826</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="D5" s="7">
+        <v>98067</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I5" s="7">
+        <v>109660</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="N5" s="7">
+        <v>207727</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29288</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="7">
+        <v>30576</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="N6" s="7">
+        <v>59863</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,48 +2811,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="D7" s="7">
+        <v>287706</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="I7" s="7">
+        <v>277711</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>524</v>
+      </c>
+      <c r="N7" s="7">
+        <v>565417</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2780,13 +2870,13 @@
         <v>338746</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -2795,13 +2885,13 @@
         <v>348668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>636</v>
@@ -2810,19 +2900,19 @@
         <v>687414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>141</v>
@@ -2831,13 +2921,13 @@
         <v>150907</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>139</v>
@@ -2846,13 +2936,13 @@
         <v>151515</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>280</v>
@@ -2861,19 +2951,19 @@
         <v>302422</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>14</v>
@@ -2882,13 +2972,13 @@
         <v>14847</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -2897,13 +2987,13 @@
         <v>20638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -2912,13 +3002,13 @@
         <v>35485</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +3023,13 @@
         <v>504499</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -2948,13 +3038,13 @@
         <v>520821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>949</v>
@@ -2963,18 +3053,18 @@
         <v>1025320</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2986,13 +3076,13 @@
         <v>274995</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>274</v>
@@ -3001,13 +3091,13 @@
         <v>295651</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>544</v>
@@ -3016,19 +3106,19 @@
         <v>570646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>46</v>
@@ -3037,13 +3127,13 @@
         <v>46175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -3052,13 +3142,13 @@
         <v>42355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3067,19 +3157,19 @@
         <v>88530</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -3088,13 +3178,13 @@
         <v>1924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3103,13 +3193,13 @@
         <v>3014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3118,13 +3208,13 @@
         <v>4938</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3229,13 @@
         <v>323094</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -3154,13 +3244,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>635</v>
@@ -3169,168 +3259,168 @@
         <v>664114</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>409002</v>
+        <v>248651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>364</v>
+        <v>241</v>
       </c>
       <c r="I16" s="7">
-        <v>391641</v>
+        <v>254167</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>745</v>
+        <v>470</v>
       </c>
       <c r="N16" s="7">
-        <v>800644</v>
+        <v>502817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7">
-        <v>197040</v>
+        <v>98973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="I17" s="7">
-        <v>224958</v>
+        <v>115298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>395</v>
+        <v>201</v>
       </c>
       <c r="N17" s="7">
-        <v>421998</v>
+        <v>214271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>52242</v>
+        <v>22955</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>46160</v>
+        <v>15584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="N18" s="7">
-        <v>98402</v>
+        <v>38539</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,54 +3429,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>617</v>
+        <v>341</v>
       </c>
       <c r="D19" s="7">
-        <v>658284</v>
+        <v>370579</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>615</v>
+        <v>367</v>
       </c>
       <c r="I19" s="7">
-        <v>662759</v>
+        <v>385049</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1232</v>
+        <v>708</v>
       </c>
       <c r="N19" s="7">
-        <v>1321044</v>
+        <v>755627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3398,13 +3488,13 @@
         <v>129110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -3413,13 +3503,13 @@
         <v>122291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -3428,19 +3518,19 @@
         <v>251402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>57</v>
@@ -3449,13 +3539,13 @@
         <v>61351</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>80</v>
@@ -3464,13 +3554,13 @@
         <v>83481</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -3479,19 +3569,19 @@
         <v>144833</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -3500,13 +3590,13 @@
         <v>22156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3515,13 +3605,13 @@
         <v>13819</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -3530,13 +3620,13 @@
         <v>35975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3641,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -3566,13 +3656,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -3581,18 +3671,18 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3604,13 +3694,13 @@
         <v>220623</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>205</v>
@@ -3619,13 +3709,13 @@
         <v>213086</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>413</v>
@@ -3634,19 +3724,19 @@
         <v>433710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>47</v>
@@ -3655,13 +3745,13 @@
         <v>47420</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -3670,13 +3760,13 @@
         <v>61901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3685,19 +3775,19 @@
         <v>109320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
@@ -3706,13 +3796,13 @@
         <v>5938</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3721,13 +3811,13 @@
         <v>3030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3736,13 +3826,13 @@
         <v>8968</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3847,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>267</v>
@@ -3772,13 +3862,13 @@
         <v>278017</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>528</v>
@@ -3787,18 +3877,18 @@
         <v>551998</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3810,13 +3900,13 @@
         <v>497200</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>495</v>
@@ -3825,13 +3915,13 @@
         <v>539639</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M28" s="7">
         <v>958</v>
@@ -3840,19 +3930,19 @@
         <v>1036840</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>139</v>
@@ -3861,13 +3951,13 @@
         <v>146319</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>125</v>
@@ -3876,13 +3966,13 @@
         <v>136852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>264</v>
@@ -3891,19 +3981,19 @@
         <v>283171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>12</v>
@@ -3912,13 +4002,13 @@
         <v>13173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3927,13 +4017,13 @@
         <v>15206</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3942,13 +4032,13 @@
         <v>28379</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +4053,13 @@
         <v>656692</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>634</v>
@@ -3978,13 +4068,13 @@
         <v>691697</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>1248</v>
@@ -3993,18 +4083,18 @@
         <v>1348390</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4016,13 +4106,13 @@
         <v>557301</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>550</v>
@@ -4031,13 +4121,13 @@
         <v>598566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>1063</v>
@@ -4046,19 +4136,19 @@
         <v>1155868</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7">
         <v>180</v>
@@ -4067,13 +4157,13 @@
         <v>195871</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="H33" s="7">
         <v>192</v>
@@ -4082,13 +4172,13 @@
         <v>208779</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="M33" s="7">
         <v>372</v>
@@ -4097,19 +4187,19 @@
         <v>404650</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>22</v>
@@ -4118,13 +4208,13 @@
         <v>23866</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -4133,13 +4223,13 @@
         <v>16508</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -4148,13 +4238,13 @@
         <v>40374</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4259,13 @@
         <v>777039</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H35" s="7">
         <v>757</v>
@@ -4184,13 +4274,13 @@
         <v>823853</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M35" s="7">
         <v>1472</v>
@@ -4199,13 +4289,13 @@
         <v>1600892</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4312,13 @@
         <v>2426978</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="H36" s="7">
         <v>2326</v>
@@ -4237,13 +4327,13 @@
         <v>2509543</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>4595</v>
@@ -4252,19 +4342,19 @@
         <v>4936521</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
         <v>797</v>
@@ -4273,13 +4363,13 @@
         <v>845083</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>843</v>
@@ -4288,13 +4378,13 @@
         <v>909841</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>1640</v>
@@ -4303,19 +4393,19 @@
         <v>1754925</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>126</v>
@@ -4324,13 +4414,13 @@
         <v>134146</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>111</v>
@@ -4339,13 +4429,13 @@
         <v>118374</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>237</v>
@@ -4354,13 +4444,13 @@
         <v>252520</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4465,13 @@
         <v>3406208</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39" s="7">
         <v>3280</v>
@@ -4390,13 +4480,13 @@
         <v>3537758</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M39" s="7">
         <v>6472</v>
@@ -4405,18 +4495,18 @@
         <v>6943966</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B44D762-B3D8-4E26-B384-7C3E86C72716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D26DC10-9248-4106-B594-20B32967655B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4457,7 +4547,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4564,13 +4654,13 @@
         <v>164857</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -4579,13 +4669,13 @@
         <v>157578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>299</v>
@@ -4594,19 +4684,19 @@
         <v>322435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>96</v>
@@ -4615,13 +4705,13 @@
         <v>103777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -4630,13 +4720,13 @@
         <v>104220</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -4645,19 +4735,19 @@
         <v>207996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>17</v>
@@ -4666,13 +4756,13 @@
         <v>18889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -4681,13 +4771,13 @@
         <v>20900</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -4696,13 +4786,13 @@
         <v>39789</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4807,13 @@
         <v>287523</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>271</v>
@@ -4732,13 +4822,13 @@
         <v>282698</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>531</v>
@@ -4747,18 +4837,18 @@
         <v>570221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4770,13 +4860,13 @@
         <v>346656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>352</v>
@@ -4785,13 +4875,13 @@
         <v>377097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>676</v>
@@ -4800,19 +4890,19 @@
         <v>723753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>130</v>
@@ -4821,13 +4911,13 @@
         <v>133381</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="H9" s="7">
         <v>110</v>
@@ -4836,13 +4926,13 @@
         <v>122351</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="M9" s="7">
         <v>240</v>
@@ -4851,19 +4941,19 @@
         <v>255733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>20</v>
@@ -4872,13 +4962,13 @@
         <v>21521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4887,13 +4977,13 @@
         <v>20608</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4902,13 +4992,13 @@
         <v>42129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +5013,13 @@
         <v>501559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -4938,13 +5028,13 @@
         <v>520056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -4953,18 +5043,18 @@
         <v>1021615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4976,13 +5066,13 @@
         <v>254203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
         <v>267</v>
@@ -4991,13 +5081,13 @@
         <v>270796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="M12" s="7">
         <v>533</v>
@@ -5006,19 +5096,19 @@
         <v>525000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>63</v>
@@ -5027,13 +5117,13 @@
         <v>58629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5042,13 +5132,13 @@
         <v>60991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -5057,19 +5147,19 @@
         <v>119620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -5078,13 +5168,13 @@
         <v>5733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5093,13 +5183,13 @@
         <v>3619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -5108,13 +5198,13 @@
         <v>9352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5219,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>331</v>
@@ -5144,13 +5234,13 @@
         <v>335407</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>666</v>
@@ -5159,18 +5249,18 @@
         <v>653972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5182,13 +5272,13 @@
         <v>268827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
         <v>262</v>
@@ -5197,13 +5287,13 @@
         <v>284866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>517</v>
@@ -5212,19 +5302,19 @@
         <v>553693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>73</v>
@@ -5233,13 +5323,13 @@
         <v>73764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -5248,13 +5338,13 @@
         <v>71640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>141</v>
@@ -5263,19 +5353,19 @@
         <v>145404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>23</v>
@@ -5284,13 +5374,13 @@
         <v>23893</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -5299,13 +5389,13 @@
         <v>24320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -5314,13 +5404,13 @@
         <v>48213</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5425,13 @@
         <v>366484</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>352</v>
@@ -5350,13 +5440,13 @@
         <v>380826</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>703</v>
@@ -5365,18 +5455,18 @@
         <v>747310</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5388,13 +5478,13 @@
         <v>183913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -5403,13 +5493,13 @@
         <v>187545</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -5418,19 +5508,19 @@
         <v>371458</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>22</v>
@@ -5439,13 +5529,13 @@
         <v>21661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>349</v>
+        <v>122</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -5454,13 +5544,13 @@
         <v>20137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -5469,19 +5559,19 @@
         <v>41798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>6</v>
@@ -5490,13 +5580,13 @@
         <v>5647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5505,13 +5595,13 @@
         <v>10905</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5520,13 +5610,13 @@
         <v>16552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5631,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -5556,13 +5646,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -5571,18 +5661,18 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5594,13 +5684,13 @@
         <v>236586</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="H24" s="7">
         <v>242</v>
@@ -5609,13 +5699,13 @@
         <v>250115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="M24" s="7">
         <v>475</v>
@@ -5624,19 +5714,19 @@
         <v>486701</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>23</v>
@@ -5645,13 +5735,13 @@
         <v>22824</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5660,13 +5750,13 @@
         <v>21965</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -5675,19 +5765,19 @@
         <v>44789</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -5696,13 +5786,13 @@
         <v>3713</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5711,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5726,13 +5816,13 @@
         <v>3713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5837,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>262</v>
@@ -5762,13 +5852,13 @@
         <v>272080</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>521</v>
@@ -5777,18 +5867,18 @@
         <v>535203</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5800,13 +5890,13 @@
         <v>427417</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="H28" s="7">
         <v>410</v>
@@ -5815,13 +5905,13 @@
         <v>436477</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="M28" s="7">
         <v>784</v>
@@ -5830,19 +5920,19 @@
         <v>863893</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>179</v>
@@ -5851,13 +5941,13 @@
         <v>200571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="H29" s="7">
         <v>209</v>
@@ -5866,13 +5956,13 @@
         <v>224716</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="M29" s="7">
         <v>388</v>
@@ -5881,19 +5971,19 @@
         <v>425287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>22</v>
@@ -5902,13 +5992,13 @@
         <v>23680</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5917,13 +6007,13 @@
         <v>23513</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -5932,13 +6022,13 @@
         <v>47193</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +6043,13 @@
         <v>651668</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>640</v>
@@ -5968,13 +6058,13 @@
         <v>684706</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>1215</v>
@@ -5983,18 +6073,18 @@
         <v>1336374</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6006,13 +6096,13 @@
         <v>693675</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="H32" s="7">
         <v>652</v>
@@ -6021,13 +6111,13 @@
         <v>712031</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="M32" s="7">
         <v>1317</v>
@@ -6036,19 +6126,19 @@
         <v>1405707</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7">
         <v>68</v>
@@ -6057,13 +6147,13 @@
         <v>68306</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
@@ -6072,13 +6162,13 @@
         <v>92426</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>97</v>
+        <v>453</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="M33" s="7">
         <v>151</v>
@@ -6087,19 +6177,19 @@
         <v>160732</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>15</v>
@@ -6108,13 +6198,13 @@
         <v>14495</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -6123,13 +6213,13 @@
         <v>15504</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -6138,13 +6228,13 @@
         <v>29999</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6249,13 @@
         <v>776476</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H35" s="7">
         <v>750</v>
@@ -6174,13 +6264,13 @@
         <v>819961</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M35" s="7">
         <v>1498</v>
@@ -6189,13 +6279,13 @@
         <v>1596438</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6302,13 @@
         <v>2576134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="H36" s="7">
         <v>2529</v>
@@ -6227,34 +6317,34 @@
         <v>2676505</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="M36" s="7">
         <v>4977</v>
       </c>
       <c r="N36" s="7">
-        <v>5252639</v>
+        <v>5252640</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
         <v>654</v>
@@ -6263,13 +6353,13 @@
         <v>682913</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="H37" s="7">
         <v>671</v>
@@ -6278,13 +6368,13 @@
         <v>718447</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="M37" s="7">
         <v>1325</v>
@@ -6293,19 +6383,19 @@
         <v>1401360</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>112</v>
@@ -6314,13 +6404,13 @@
         <v>117572</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="H38" s="7">
         <v>110</v>
@@ -6329,13 +6419,13 @@
         <v>119370</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="M38" s="7">
         <v>222</v>
@@ -6344,13 +6434,13 @@
         <v>236941</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6455,13 @@
         <v>3376619</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39" s="7">
         <v>3310</v>
@@ -6380,33 +6470,33 @@
         <v>3514322</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M39" s="7">
         <v>6524</v>
       </c>
       <c r="N39" s="7">
-        <v>6890940</v>
+        <v>6890941</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6430,7 +6520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D9BF7-2802-46DD-840E-DD0D1CAF6428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943610F7-C962-43D4-A0A0-B113DCA06024}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6447,7 +6537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6551,103 +6641,103 @@
         <v>309</v>
       </c>
       <c r="D4" s="7">
-        <v>249671</v>
+        <v>299152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>511</v>
       </c>
       <c r="I4" s="7">
-        <v>257054</v>
+        <v>272639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>820</v>
       </c>
       <c r="N4" s="7">
-        <v>506725</v>
+        <v>571791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>9563</v>
+        <v>11009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>499</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>14190</v>
+        <v>16830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>23752</v>
+        <v>27839</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>504</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -6656,43 +6746,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6704,51 +6794,51 @@
         <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>259234</v>
+        <v>310161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>868</v>
       </c>
       <c r="N7" s="7">
-        <v>530636</v>
+        <v>599796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6757,148 +6847,148 @@
         <v>293</v>
       </c>
       <c r="D8" s="7">
-        <v>396114</v>
+        <v>397141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
       </c>
       <c r="I8" s="7">
-        <v>424461</v>
+        <v>394749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="M8" s="7">
         <v>849</v>
       </c>
       <c r="N8" s="7">
-        <v>820575</v>
+        <v>791890</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>73</v>
       </c>
       <c r="D9" s="7">
-        <v>94551</v>
+        <v>92104</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="H9" s="7">
         <v>137</v>
       </c>
       <c r="I9" s="7">
-        <v>113516</v>
+        <v>104827</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="M9" s="7">
         <v>210</v>
       </c>
       <c r="N9" s="7">
-        <v>208067</v>
+        <v>196931</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>502</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>28632</v>
+        <v>29145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>14513</v>
+        <v>13486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>43145</v>
+        <v>42630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>508</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,51 +7000,51 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>714</v>
       </c>
       <c r="I11" s="7">
-        <v>552490</v>
+        <v>513062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1096</v>
       </c>
       <c r="N11" s="7">
-        <v>1071787</v>
+        <v>1031452</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6963,148 +7053,148 @@
         <v>306</v>
       </c>
       <c r="D12" s="7">
-        <v>273762</v>
+        <v>268607</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="H12" s="7">
         <v>468</v>
       </c>
       <c r="I12" s="7">
-        <v>321049</v>
+        <v>300403</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="M12" s="7">
         <v>774</v>
       </c>
       <c r="N12" s="7">
-        <v>594811</v>
+        <v>569009</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>27881</v>
+        <v>27071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>34119</v>
+        <v>31796</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>62000</v>
+        <v>58867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>19547</v>
+        <v>19353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>554</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>18116</v>
+        <v>16928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>531</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>37664</v>
+        <v>36281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,51 +7206,51 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321191</v>
+        <v>315031</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694474</v>
+        <v>664158</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7169,148 +7259,148 @@
         <v>238</v>
       </c>
       <c r="D16" s="7">
-        <v>268465</v>
+        <v>260625</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="H16" s="7">
         <v>499</v>
       </c>
       <c r="I16" s="7">
-        <v>364013</v>
+        <v>415969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="M16" s="7">
         <v>737</v>
       </c>
       <c r="N16" s="7">
-        <v>632477</v>
+        <v>676593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>569</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>44516</v>
+        <v>42722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>573</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
       </c>
       <c r="I17" s="7">
-        <v>50134</v>
+        <v>46461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
       </c>
       <c r="N17" s="7">
-        <v>94650</v>
+        <v>89182</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>551</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>8652</v>
+        <v>8627</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>13273</v>
+        <v>12239</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>583</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>21925</v>
+        <v>20866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,51 +7412,51 @@
         <v>291</v>
       </c>
       <c r="D19" s="7">
-        <v>321633</v>
+        <v>311973</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>597</v>
       </c>
       <c r="I19" s="7">
-        <v>427420</v>
+        <v>474669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>888</v>
       </c>
       <c r="N19" s="7">
-        <v>749053</v>
+        <v>786642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7375,118 +7465,118 @@
         <v>259</v>
       </c>
       <c r="D20" s="7">
-        <v>180024</v>
+        <v>163785</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>462</v>
       </c>
       <c r="I20" s="7">
-        <v>243721</v>
+        <v>244492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="M20" s="7">
         <v>721</v>
       </c>
       <c r="N20" s="7">
-        <v>423743</v>
+        <v>408277</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>19</v>
       </c>
       <c r="D21" s="7">
-        <v>16565</v>
+        <v>14795</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>15792</v>
+        <v>14287</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>96</v>
+        <v>599</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
       </c>
       <c r="N21" s="7">
-        <v>32357</v>
+        <v>29082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>573</v>
+        <v>309</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7495,28 +7585,28 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,51 +7618,51 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
       </c>
       <c r="I23" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>774</v>
       </c>
       <c r="N23" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7581,148 +7671,148 @@
         <v>326</v>
       </c>
       <c r="D24" s="7">
-        <v>243318</v>
+        <v>236907</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>609</v>
       </c>
       <c r="H24" s="7">
         <v>411</v>
       </c>
       <c r="I24" s="7">
-        <v>244972</v>
+        <v>228618</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="M24" s="7">
         <v>737</v>
       </c>
       <c r="N24" s="7">
-        <v>488291</v>
+        <v>465524</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>21435</v>
+        <v>20526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
       </c>
       <c r="I25" s="7">
-        <v>20640</v>
+        <v>19178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
       </c>
       <c r="N25" s="7">
-        <v>42074</v>
+        <v>39705</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>12047</v>
+        <v>11802</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>10010</v>
+        <v>9260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>627</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
       </c>
       <c r="N26" s="7">
-        <v>22057</v>
+        <v>21062</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>414</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,51 +7824,51 @@
         <v>370</v>
       </c>
       <c r="D27" s="7">
-        <v>276800</v>
+        <v>269236</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>830</v>
       </c>
       <c r="N27" s="7">
-        <v>552422</v>
+        <v>526291</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7787,148 +7877,148 @@
         <v>468</v>
       </c>
       <c r="D28" s="7">
-        <v>481318</v>
+        <v>475123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="H28" s="7">
         <v>718</v>
       </c>
       <c r="I28" s="7">
-        <v>623555</v>
+        <v>681628</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="M28" s="7">
         <v>1186</v>
       </c>
       <c r="N28" s="7">
-        <v>1104873</v>
+        <v>1156751</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>91</v>
       </c>
       <c r="D29" s="7">
-        <v>103347</v>
+        <v>106619</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>641</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="H29" s="7">
         <v>182</v>
       </c>
       <c r="I29" s="7">
-        <v>134976</v>
+        <v>125253</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="M29" s="7">
         <v>273</v>
       </c>
       <c r="N29" s="7">
-        <v>238322</v>
+        <v>231872</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>500</v>
+        <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>31</v>
       </c>
       <c r="D30" s="7">
-        <v>35609</v>
+        <v>35448</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
       </c>
       <c r="I30" s="7">
-        <v>40996</v>
+        <v>38021</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>621</v>
+        <v>226</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>82</v>
       </c>
       <c r="N30" s="7">
-        <v>76605</v>
+        <v>73470</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>507</v>
+        <v>653</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>625</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,51 +8030,51 @@
         <v>590</v>
       </c>
       <c r="D31" s="7">
-        <v>620274</v>
+        <v>617190</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>951</v>
       </c>
       <c r="I31" s="7">
-        <v>799526</v>
+        <v>844903</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>1541</v>
       </c>
       <c r="N31" s="7">
-        <v>1419800</v>
+        <v>1462093</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7993,148 +8083,148 @@
         <v>625</v>
       </c>
       <c r="D32" s="7">
-        <v>716718</v>
+        <v>806817</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="H32" s="7">
         <v>822</v>
       </c>
       <c r="I32" s="7">
-        <v>674709</v>
+        <v>557191</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="M32" s="7">
         <v>1447</v>
       </c>
       <c r="N32" s="7">
-        <v>1391427</v>
+        <v>1364008</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7">
         <v>88</v>
       </c>
       <c r="D33" s="7">
-        <v>95761</v>
+        <v>81425</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>381</v>
+        <v>662</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="H33" s="7">
         <v>154</v>
       </c>
       <c r="I33" s="7">
-        <v>124823</v>
+        <v>103014</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>495</v>
+        <v>324</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="M33" s="7">
         <v>242</v>
       </c>
       <c r="N33" s="7">
-        <v>220584</v>
+        <v>184440</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>640</v>
+        <v>122</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>49</v>
       </c>
       <c r="D34" s="7">
-        <v>46949</v>
+        <v>40478</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="H34" s="7">
         <v>82</v>
       </c>
       <c r="I34" s="7">
-        <v>66137</v>
+        <v>55207</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>647</v>
+        <v>556</v>
       </c>
       <c r="M34" s="7">
         <v>131</v>
       </c>
       <c r="N34" s="7">
-        <v>113085</v>
+        <v>95685</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,46 +8236,46 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H35" s="7">
         <v>1058</v>
       </c>
       <c r="I35" s="7">
-        <v>865668</v>
+        <v>715412</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M35" s="7">
         <v>1820</v>
       </c>
       <c r="N35" s="7">
-        <v>1725096</v>
+        <v>1644132</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,148 +8289,148 @@
         <v>2824</v>
       </c>
       <c r="D36" s="7">
-        <v>2809390</v>
+        <v>2908157</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="H36" s="7">
         <v>4447</v>
       </c>
       <c r="I36" s="7">
-        <v>3153533</v>
+        <v>3095688</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="M36" s="7">
         <v>7271</v>
       </c>
       <c r="N36" s="7">
-        <v>5962923</v>
+        <v>6003845</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
         <v>403</v>
       </c>
       <c r="D37" s="7">
-        <v>413618</v>
+        <v>396272</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>426</v>
+        <v>685</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="H37" s="7">
         <v>691</v>
       </c>
       <c r="I37" s="7">
-        <v>508189</v>
+        <v>461647</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="M37" s="7">
         <v>1094</v>
       </c>
       <c r="N37" s="7">
-        <v>921807</v>
+        <v>857919</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>136</v>
       </c>
       <c r="D38" s="7">
-        <v>151596</v>
+        <v>145015</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>669</v>
+        <v>229</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H38" s="7">
         <v>211</v>
       </c>
       <c r="I38" s="7">
-        <v>163204</v>
+        <v>145308</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>670</v>
+        <v>115</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>671</v>
+        <v>336</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="M38" s="7">
         <v>347</v>
       </c>
       <c r="N38" s="7">
-        <v>314800</v>
+        <v>290323</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>673</v>
+        <v>281</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>674</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>41</v>
+        <v>696</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,51 +8442,51 @@
         <v>3363</v>
       </c>
       <c r="D39" s="7">
-        <v>3374605</v>
+        <v>3449443</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39" s="7">
         <v>5349</v>
       </c>
       <c r="I39" s="7">
-        <v>3824925</v>
+        <v>3702643</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M39" s="7">
         <v>8712</v>
       </c>
       <c r="N39" s="7">
-        <v>7199530</v>
+        <v>7152086</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
